--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E799F-E7FA-4683-A5BB-2DC921D18446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E82F5A1-2090-4A4C-ACBF-CAA965E32864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Users - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>acx</t>
   </si>
 </sst>
 </file>
@@ -503,15 +506,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101D04E-E32A-426E-931C-4679D1838EDE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E82F5A1-2090-4A4C-ACBF-CAA965E32864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7B930-E55B-4A24-8A27-95B9CA431873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
     <sheet name="UserManagement" sheetId="4" r:id="rId4"/>
     <sheet name="Users" sheetId="5" r:id="rId5"/>
+    <sheet name="AddUsers" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -67,7 +68,37 @@
     <t>Users - Reobeen HHC</t>
   </si>
   <si>
-    <t>acx</t>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>Add user - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Navya</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>navya</t>
+  </si>
+  <si>
+    <t>Rithu@12</t>
+  </si>
+  <si>
+    <t>Navya Rahul</t>
   </si>
 </sst>
 </file>
@@ -112,9 +143,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,23 +544,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101D04E-E32A-426E-931C-4679D1838EDE}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A34D4-533B-4A6F-9D09-4EF8AF0577D3}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{07B11A0B-2EBD-49EF-8371-CF717C578A8C}"/>
+    <hyperlink ref="G1" r:id="rId2" xr:uid="{531B2D65-DE58-47DE-ABD5-47622A73A2ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7B930-E55B-4A24-8A27-95B9CA431873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38B75D5-B131-4069-8047-DC38537FAF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,19 +86,19 @@
     <t>Mrs</t>
   </si>
   <si>
-    <t>Navya</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>navya</t>
-  </si>
-  <si>
     <t>Rithu@12</t>
   </si>
   <si>
     <t>Navya Rahul</t>
+  </si>
+  <si>
+    <t>Nair</t>
+  </si>
+  <si>
+    <t>ratna1</t>
+  </si>
+  <si>
+    <t>Ratna1</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,25 +596,25 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38B75D5-B131-4069-8047-DC38537FAF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4094CB-7245-45C5-ACDD-6C5CE6761C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="UserManagement" sheetId="4" r:id="rId4"/>
     <sheet name="Users" sheetId="5" r:id="rId5"/>
     <sheet name="AddUsers" sheetId="6" r:id="rId6"/>
+    <sheet name="UpdateUsers" sheetId="7" r:id="rId7"/>
+    <sheet name="ViewUsers" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -99,6 +101,21 @@
   </si>
   <si>
     <t>Ratna1</t>
+  </si>
+  <si>
+    <t>Edit user - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>vishnu</t>
+  </si>
+  <si>
+    <t>vishnu@gmail.com</t>
+  </si>
+  <si>
+    <t>sree12</t>
+  </si>
+  <si>
+    <t>Mr Vishnu S</t>
   </si>
 </sst>
 </file>
@@ -544,10 +561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101D04E-E32A-426E-931C-4679D1838EDE}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +572,7 @@
     <col min="2" max="3" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -570,6 +587,12 @@
       </c>
       <c r="E1" t="s">
         <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -580,15 +603,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A34D4-533B-4A6F-9D09-4EF8AF0577D3}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -615,6 +638,9 @@
       </c>
       <c r="I1" t="s">
         <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -625,4 +651,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31F8E2A-3483-4238-963F-4DA7A7A93B83}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{35EA8E0C-6486-4D23-8190-5FC4921787FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8715BD5F-1AD6-42C0-824F-B327B4A963DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4094CB-7245-45C5-ACDD-6C5CE6761C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1633C1-07E5-45C8-A3D8-0443C554D661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="AddUsers" sheetId="6" r:id="rId6"/>
     <sheet name="UpdateUsers" sheetId="7" r:id="rId7"/>
     <sheet name="ViewUsers" sheetId="8" r:id="rId8"/>
+    <sheet name="Roles" sheetId="11" r:id="rId9"/>
+    <sheet name="AddRoles" sheetId="12" r:id="rId10"/>
+    <sheet name="UpdateRoles" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -106,16 +109,37 @@
     <t>Edit user - Reobeen HHC</t>
   </si>
   <si>
-    <t>vishnu</t>
-  </si>
-  <si>
-    <t>vishnu@gmail.com</t>
-  </si>
-  <si>
     <t>sree12</t>
   </si>
   <si>
-    <t>Mr Vishnu S</t>
+    <t>Mrs Rithika Krishna</t>
+  </si>
+  <si>
+    <t>rithika</t>
+  </si>
+  <si>
+    <t>rithika12@gmail.com</t>
+  </si>
+  <si>
+    <t>Roles - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Add Role - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Web Designer</t>
+  </si>
+  <si>
+    <t>Edit Role - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>aria-checked</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
   </si>
 </sst>
 </file>
@@ -488,6 +512,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5969-A67E-42F2-8E31-E8D3DBF2CC08}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA908D-C33C-4695-8975-C88CD32D0EC4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA47395-D238-4BB2-B3A3-0256C94BA48A}">
   <dimension ref="A1:B1"/>
@@ -589,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +714,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -668,10 +742,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -679,6 +753,7 @@
     <hyperlink ref="C1" r:id="rId1" xr:uid="{35EA8E0C-6486-4D23-8190-5FC4921787FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -686,13 +761,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8715BD5F-1AD6-42C0-824F-B327B4A963DA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA901C2-0BE8-4186-8E4B-536919D1C364}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1633C1-07E5-45C8-A3D8-0443C554D661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE15A2-9D30-43E4-8EB3-C2155D5FEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,10 @@
     <sheet name="Roles" sheetId="11" r:id="rId9"/>
     <sheet name="AddRoles" sheetId="12" r:id="rId10"/>
     <sheet name="UpdateRoles" sheetId="13" r:id="rId11"/>
+    <sheet name="SalesCommissionAgents" sheetId="14" r:id="rId12"/>
+    <sheet name="AddSalesCommissionAgents" sheetId="15" r:id="rId13"/>
+    <sheet name="UpdateSalesCommissionAgents" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet4" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -73,9 +77,6 @@
     <t>Users - Reobeen HHC</t>
   </si>
   <si>
-    <t>0223</t>
-  </si>
-  <si>
     <t>011</t>
   </si>
   <si>
@@ -94,33 +95,15 @@
     <t>Rithu@12</t>
   </si>
   <si>
-    <t>Navya Rahul</t>
-  </si>
-  <si>
-    <t>Nair</t>
-  </si>
-  <si>
-    <t>ratna1</t>
-  </si>
-  <si>
-    <t>Ratna1</t>
-  </si>
-  <si>
     <t>Edit user - Reobeen HHC</t>
   </si>
   <si>
-    <t>sree12</t>
-  </si>
-  <si>
     <t>Mrs Rithika Krishna</t>
   </si>
   <si>
     <t>rithika</t>
   </si>
   <si>
-    <t>rithika12@gmail.com</t>
-  </si>
-  <si>
     <t>Roles - Reobeen HHC</t>
   </si>
   <si>
@@ -139,7 +122,64 @@
     <t>true</t>
   </si>
   <si>
-    <t>Web Developer</t>
+    <t>Sales Commission Agents - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>Mr Rahul Krishna</t>
+  </si>
+  <si>
+    <t>Mr Naveen Krishna</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>PHP Developer</t>
+  </si>
+  <si>
+    <t>Test Analyst</t>
+  </si>
+  <si>
+    <t>Rithul</t>
+  </si>
+  <si>
+    <t>rithul@gmail.com</t>
+  </si>
+  <si>
+    <t>rahulkrishna92@gmail.com</t>
+  </si>
+  <si>
+    <t>meenu12</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>anamika</t>
+  </si>
+  <si>
+    <t>Amitha</t>
+  </si>
+  <si>
+    <t>amitha20</t>
+  </si>
+  <si>
+    <t>Amitha Babu</t>
+  </si>
+  <si>
+    <t>amitha21</t>
+  </si>
+  <si>
+    <t>anu123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -184,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,20 +555,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5969-A67E-42F2-8E31-E8D3DBF2CC08}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>29</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -547,18 +591,125 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947F9957-F7FF-43AF-A7B0-31D6D25D6B54}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD23C5-0A8A-4EAE-818F-2BD4837E7C1F}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1">
+        <v>123456789</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{5773C53C-5217-4BF1-AA6F-FD6D211048D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52EBBD-4524-473E-B687-FC462FDD37FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A5998AA9-D34A-4339-B24E-B11C5D5EED32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD893CD-1340-4B1A-8AF6-299605E3CCE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -637,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101D04E-E32A-426E-931C-4679D1838EDE}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,22 +802,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -677,44 +828,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A34D4-533B-4A6F-9D09-4EF8AF0577D3}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -739,13 +896,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +924,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA901C2-0BE8-4186-8E4B-536919D1C364}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -787,10 +944,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE15A2-9D30-43E4-8EB3-C2155D5FEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D76DB-0911-4E8C-8EC6-7647AD620BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>PHP Developer</t>
   </si>
   <si>
-    <t>Test Analyst</t>
-  </si>
-  <si>
     <t>Rithul</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>anu123@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
   </si>
 </sst>
 </file>
@@ -557,6 +557,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5969-A67E-42F2-8E31-E8D3DBF2CC08}">
   <dimension ref="A1:C1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA908D-C33C-4695-8975-C88CD32D0EC4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947F9957-F7FF-43AF-A7B0-31D6D25D6B54}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD23C5-0A8A-4EAE-818F-2BD4837E7C1F}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1">
+        <v>123456789</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{5773C53C-5217-4BF1-AA6F-FD6D211048D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52EBBD-4524-473E-B687-FC462FDD37FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A5998AA9-D34A-4339-B24E-B11C5D5EED32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD893CD-1340-4B1A-8AF6-299605E3CCE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA47395-D238-4BB2-B3A3-0256C94BA48A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{6C7F7B3F-B43A-4DD1-A777-259D1D1C39B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372CA9B0-5F9B-4FA6-807F-2AD02137710A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D2B725-8612-4117-BEF4-C4FE82B04D1C}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -565,210 +769,6 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA908D-C33C-4695-8975-C88CD32D0EC4}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947F9957-F7FF-43AF-A7B0-31D6D25D6B54}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD23C5-0A8A-4EAE-818F-2BD4837E7C1F}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1">
-        <v>123456789</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="5">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{5773C53C-5217-4BF1-AA6F-FD6D211048D2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52EBBD-4524-473E-B687-FC462FDD37FE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{A5998AA9-D34A-4339-B24E-B11C5D5EED32}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD893CD-1340-4B1A-8AF6-299605E3CCE7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA47395-D238-4BB2-B3A3-0256C94BA48A}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{6C7F7B3F-B43A-4DD1-A777-259D1D1C39B6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372CA9B0-5F9B-4FA6-807F-2AD02137710A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D2B725-8612-4117-BEF4-C4FE82B04D1C}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -788,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101D04E-E32A-426E-931C-4679D1838EDE}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -844,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
